--- a/docs/Planung/Gantt-Zeitplan.xlsx
+++ b/docs/Planung/Gantt-Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770DE8B0-4C5C-43EF-977B-85FFFE8C9BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819FDDEF-32E6-4482-AE4E-565C555F3F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -733,7 +733,7 @@
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -977,6 +977,30 @@
     <xf numFmtId="170" fontId="7" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="13" borderId="2" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="13" borderId="2" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -992,31 +1016,13 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="13" borderId="2" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="13" borderId="2" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="13" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="23" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1591,7 +1597,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="AK19" sqref="AK19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1640,106 +1646,106 @@
       <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="90">
+      <c r="D3" s="94"/>
+      <c r="E3" s="98">
         <v>44985</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="87">
+      <c r="K4" s="95">
         <f>K5</f>
         <v>44984</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="87">
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="95">
         <f>R5</f>
         <v>44991</v>
       </c>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="87">
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="95">
         <f>Y5</f>
         <v>44998</v>
       </c>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="87">
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="95">
         <f>AF5</f>
         <v>45005</v>
       </c>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="87">
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="96"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="95">
         <f>AM5</f>
         <v>45012</v>
       </c>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="88"/>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="87">
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="96"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="95">
         <f>AT5</f>
         <v>45019</v>
       </c>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="87">
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="96"/>
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="95">
         <f>BA5</f>
         <v>45026</v>
       </c>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="88"/>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="87">
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="96"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="95">
         <f>BH5</f>
         <v>45033</v>
       </c>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="88"/>
-      <c r="BM4" s="88"/>
-      <c r="BN4" s="89"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="96"/>
+      <c r="BM4" s="96"/>
+      <c r="BN4" s="97"/>
     </row>
     <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45" t="s">
@@ -2008,227 +2014,227 @@
         <v>4</v>
       </c>
       <c r="K6" s="13" t="str">
-        <f>LEFT(TEXT(K5,"ddd"),1)</f>
+        <f t="shared" ref="K6:AP6" si="3">LEFT(TEXT(K5,"ddd"),1)</f>
         <v>d</v>
       </c>
       <c r="L6" s="13" t="str">
-        <f>LEFT(TEXT(L5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="M6" s="13" t="str">
-        <f>LEFT(TEXT(M5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="N6" s="13" t="str">
-        <f>LEFT(TEXT(N5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="O6" s="13" t="str">
-        <f>LEFT(TEXT(O5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="P6" s="13" t="str">
-        <f>LEFT(TEXT(P5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="Q6" s="13" t="str">
-        <f>LEFT(TEXT(Q5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="R6" s="13" t="str">
-        <f>LEFT(TEXT(R5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="S6" s="13" t="str">
-        <f>LEFT(TEXT(S5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="T6" s="13" t="str">
-        <f>LEFT(TEXT(T5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="U6" s="13" t="str">
-        <f>LEFT(TEXT(U5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="V6" s="13" t="str">
-        <f>LEFT(TEXT(V5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="W6" s="13" t="str">
-        <f>LEFT(TEXT(W5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="X6" s="13" t="str">
-        <f>LEFT(TEXT(X5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="Y6" s="13" t="str">
-        <f>LEFT(TEXT(Y5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="Z6" s="13" t="str">
-        <f>LEFT(TEXT(Z5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AA6" s="13" t="str">
-        <f>LEFT(TEXT(AA5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AB6" s="13" t="str">
-        <f>LEFT(TEXT(AB5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AC6" s="13" t="str">
-        <f>LEFT(TEXT(AC5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AD6" s="13" t="str">
-        <f>LEFT(TEXT(AD5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AE6" s="13" t="str">
-        <f>LEFT(TEXT(AE5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AF6" s="13" t="str">
-        <f>LEFT(TEXT(AF5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AG6" s="13" t="str">
-        <f>LEFT(TEXT(AG5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AH6" s="13" t="str">
-        <f>LEFT(TEXT(AH5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AI6" s="13" t="str">
-        <f>LEFT(TEXT(AI5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AJ6" s="13" t="str">
-        <f>LEFT(TEXT(AJ5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AK6" s="13" t="str">
-        <f>LEFT(TEXT(AK5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AL6" s="13" t="str">
-        <f>LEFT(TEXT(AL5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AM6" s="13" t="str">
-        <f>LEFT(TEXT(AM5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AN6" s="13" t="str">
-        <f>LEFT(TEXT(AN5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AO6" s="13" t="str">
-        <f>LEFT(TEXT(AO5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AP6" s="13" t="str">
-        <f>LEFT(TEXT(AP5,"ddd"),1)</f>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="AQ6" s="13" t="str">
-        <f>LEFT(TEXT(AQ5,"ddd"),1)</f>
+        <f t="shared" ref="AQ6:BV6" si="4">LEFT(TEXT(AQ5,"ddd"),1)</f>
         <v>d</v>
       </c>
       <c r="AR6" s="13" t="str">
-        <f>LEFT(TEXT(AR5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AS6" s="13" t="str">
-        <f>LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AT6" s="13" t="str">
-        <f>LEFT(TEXT(AT5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AU6" s="13" t="str">
-        <f>LEFT(TEXT(AU5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AV6" s="13" t="str">
-        <f>LEFT(TEXT(AV5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AW6" s="13" t="str">
-        <f>LEFT(TEXT(AW5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AX6" s="13" t="str">
-        <f>LEFT(TEXT(AX5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AY6" s="13" t="str">
-        <f>LEFT(TEXT(AY5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="AZ6" s="13" t="str">
-        <f>LEFT(TEXT(AZ5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BA6" s="13" t="str">
-        <f>LEFT(TEXT(BA5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BB6" s="13" t="str">
-        <f>LEFT(TEXT(BB5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BC6" s="13" t="str">
-        <f>LEFT(TEXT(BC5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BD6" s="13" t="str">
-        <f>LEFT(TEXT(BD5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BE6" s="13" t="str">
-        <f>LEFT(TEXT(BE5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BF6" s="13" t="str">
-        <f>LEFT(TEXT(BF5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BG6" s="13" t="str">
-        <f>LEFT(TEXT(BG5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BH6" s="13" t="str">
-        <f>LEFT(TEXT(BH5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BI6" s="13" t="str">
-        <f>LEFT(TEXT(BI5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BJ6" s="13" t="str">
-        <f>LEFT(TEXT(BJ5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BK6" s="13" t="str">
-        <f>LEFT(TEXT(BK5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BL6" s="13" t="str">
-        <f>LEFT(TEXT(BL5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BM6" s="13" t="str">
-        <f>LEFT(TEXT(BM5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="BN6" s="13" t="str">
-        <f>LEFT(TEXT(BN5,"ddd"),1)</f>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
     </row>
@@ -2314,7 +2320,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="str">
-        <f t="shared" ref="J8:J33" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="J8:J33" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="K8" s="32"/>
@@ -2403,7 +2409,7 @@
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K9" s="32"/>
@@ -2490,7 +2496,7 @@
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K10" s="32"/>
@@ -2561,7 +2567,7 @@
       <c r="D11" s="22">
         <v>1</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="101">
         <v>1</v>
       </c>
       <c r="F11" s="71">
@@ -2577,7 +2583,7 @@
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K11" s="32"/>
@@ -2723,15 +2729,15 @@
     </row>
     <row r="13" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="45"/>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="32"/>
@@ -2793,17 +2799,27 @@
     </row>
     <row r="14" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="45"/>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
+      <c r="D14" s="93">
+        <v>1</v>
+      </c>
+      <c r="E14" s="102">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="102">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="100">
+        <v>44987</v>
+      </c>
+      <c r="H14" s="100">
+        <v>44987</v>
+      </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="32"/>
@@ -2865,17 +2881,27 @@
     </row>
     <row r="15" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="45"/>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
+      <c r="D15" s="93">
+        <v>1</v>
+      </c>
+      <c r="E15" s="102">
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="102">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="100">
+        <v>44987</v>
+      </c>
+      <c r="H15" s="100">
+        <v>44987</v>
+      </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="32"/>
@@ -2937,17 +2963,25 @@
     </row>
     <row r="16" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45"/>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
+      <c r="D16" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="102">
+        <v>1</v>
+      </c>
+      <c r="F16" s="102"/>
+      <c r="G16" s="100">
+        <v>44988</v>
+      </c>
+      <c r="H16" s="100">
+        <v>44988</v>
+      </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="32"/>
@@ -3009,15 +3043,15 @@
     </row>
     <row r="17" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="45"/>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="100"/>
       <c r="H17" s="100"/>
       <c r="I17" s="17"/>
@@ -3081,13 +3115,13 @@
     </row>
     <row r="18" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="45"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="98" t="s">
+      <c r="B18" s="91"/>
+      <c r="C18" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
       <c r="G18" s="100"/>
       <c r="H18" s="100"/>
       <c r="I18" s="17"/>
@@ -3164,7 +3198,7 @@
       <c r="H19" s="79"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K19" s="32"/>
@@ -3248,7 +3282,7 @@
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K20" s="32"/>
@@ -3487,7 +3521,7 @@
       <c r="H23" s="82"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K23" s="32"/>
@@ -3571,7 +3605,7 @@
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K24" s="32"/>
@@ -3650,12 +3684,12 @@
         <v>45004</v>
       </c>
       <c r="H25" s="83">
-        <f t="shared" ref="H25:H28" si="4">G25+0</f>
+        <f t="shared" ref="H25:H28" si="6">G25+0</f>
         <v>45004</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K25" s="32"/>
@@ -3734,12 +3768,12 @@
         <v>45004</v>
       </c>
       <c r="H26" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45004</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K26" s="32"/>
@@ -3818,12 +3852,12 @@
         <v>45004</v>
       </c>
       <c r="H27" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45004</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K27" s="32"/>
@@ -3902,12 +3936,12 @@
         <v>45004</v>
       </c>
       <c r="H28" s="83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45004</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K28" s="32"/>
@@ -3982,7 +4016,7 @@
       <c r="H29" s="85"/>
       <c r="I29" s="17"/>
       <c r="J29" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K29" s="32"/>
@@ -4066,7 +4100,7 @@
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K30" s="32"/>
@@ -4138,19 +4172,19 @@
         <v>0</v>
       </c>
       <c r="E31" s="77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F31" s="77"/>
       <c r="G31" s="86">
         <v>45005</v>
       </c>
       <c r="H31" s="86">
-        <f t="shared" ref="H31:H32" si="5">G31</f>
+        <f t="shared" ref="H31:H32" si="7">G31</f>
         <v>45005</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K31" s="32"/>
@@ -4229,12 +4263,12 @@
         <v>45005</v>
       </c>
       <c r="H32" s="86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45005</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K32" s="32"/>
@@ -4304,21 +4338,21 @@
       <c r="C33" s="60"/>
       <c r="D33" s="16">
         <f>AVERAGE(D9:D32)</f>
-        <v>0.26666666666666666</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="E33" s="60">
         <f>SUM(E9:E32)</f>
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="F33" s="60">
         <f>SUM(F9:F32)</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G33" s="51"/>
       <c r="H33" s="51"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K33" s="32"/>
@@ -4390,19 +4424,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BH4:BN4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:F8 D9:D12 D19:D33 D13:F18">
+  <conditionalFormatting sqref="D7:F8 D9:D12 D13:F13 D14:D33">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4456,7 +4490,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:F8 D9:D12 D19:D33 D13:F18</xm:sqref>
+          <xm:sqref>D7:F8 D9:D12 D13:F13 D14:D33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/Planung/Gantt-Zeitplan.xlsx
+++ b/docs/Planung/Gantt-Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819FDDEF-32E6-4482-AE4E-565C555F3F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DBD021-9456-4599-9EA0-84D9F093009D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -998,32 +998,32 @@
     <xf numFmtId="9" fontId="23" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="23" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="23" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1596,25 +1596,25 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK19" sqref="AK19"/>
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6328125" customWidth="1"/>
-    <col min="10" max="10" width="6.08984375" hidden="1" customWidth="1"/>
-    <col min="11" max="66" width="2.54296875" customWidth="1"/>
-    <col min="71" max="72" width="10.36328125"/>
+    <col min="1" max="1" width="2.62890625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="33.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.62890625" customWidth="1"/>
+    <col min="4" max="6" width="10.62890625" customWidth="1"/>
+    <col min="7" max="7" width="9.89453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.89453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.62890625" customWidth="1"/>
+    <col min="10" max="10" width="6.1015625" hidden="1" customWidth="1"/>
+    <col min="11" max="66" width="2.5234375" customWidth="1"/>
+    <col min="71" max="72" width="10.3671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="44" t="s">
         <v>20</v>
       </c>
@@ -1639,115 +1639,115 @@
       </c>
       <c r="K2" s="68"/>
     </row>
-    <row r="3" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="98">
+      <c r="D3" s="102"/>
+      <c r="E3" s="100">
         <v>44985</v>
       </c>
-      <c r="F3" s="99"/>
-    </row>
-    <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="101"/>
+    </row>
+    <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="95">
+      <c r="K4" s="97">
         <f>K5</f>
         <v>44984</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="95">
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="97">
         <f>R5</f>
         <v>44991</v>
       </c>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="95">
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="97">
         <f>Y5</f>
         <v>44998</v>
       </c>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="96"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="95">
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="97">
         <f>AF5</f>
         <v>45005</v>
       </c>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="96"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="95">
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="97">
         <f>AM5</f>
         <v>45012</v>
       </c>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="96"/>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="95">
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="97">
         <f>AT5</f>
         <v>45019</v>
       </c>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="96"/>
-      <c r="AZ4" s="97"/>
-      <c r="BA4" s="95">
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="97">
         <f>BA5</f>
         <v>45026</v>
       </c>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="96"/>
-      <c r="BG4" s="97"/>
-      <c r="BH4" s="95">
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="98"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="98"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="97">
         <f>BH5</f>
         <v>45033</v>
       </c>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="96"/>
-      <c r="BM4" s="96"/>
-      <c r="BN4" s="97"/>
-    </row>
-    <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BI4" s="98"/>
+      <c r="BJ4" s="98"/>
+      <c r="BK4" s="98"/>
+      <c r="BL4" s="98"/>
+      <c r="BM4" s="98"/>
+      <c r="BN4" s="99"/>
+    </row>
+    <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="45" t="s">
         <v>25</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="6" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="45" t="s">
         <v>26</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>d</v>
       </c>
       <c r="AQ6" s="13" t="str">
-        <f t="shared" ref="AQ6:BV6" si="4">LEFT(TEXT(AQ5,"ddd"),1)</f>
+        <f t="shared" ref="AQ6:BN6" si="4">LEFT(TEXT(AQ5,"ddd"),1)</f>
         <v>d</v>
       </c>
       <c r="AR6" s="13" t="str">
@@ -2238,7 +2238,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:66" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:66" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="44" t="s">
         <v>30</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="BM7" s="32"/>
       <c r="BN7" s="32"/>
     </row>
-    <row r="8" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="45" t="s">
         <v>27</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="BM8" s="32"/>
       <c r="BN8" s="32"/>
     </row>
-    <row r="9" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="45" t="s">
         <v>31</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="BM9" s="32"/>
       <c r="BN9" s="32"/>
     </row>
-    <row r="10" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="44"/>
       <c r="B10" s="61" t="s">
         <v>60</v>
@@ -2556,7 +2556,7 @@
       <c r="BM10" s="32"/>
       <c r="BN10" s="32"/>
     </row>
-    <row r="11" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="44"/>
       <c r="B11" s="61" t="s">
         <v>37</v>
@@ -2567,7 +2567,7 @@
       <c r="D11" s="22">
         <v>1</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="95">
         <v>1</v>
       </c>
       <c r="F11" s="71">
@@ -2643,7 +2643,7 @@
       <c r="BM11" s="32"/>
       <c r="BN11" s="32"/>
     </row>
-    <row r="12" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="44"/>
       <c r="B12" s="61" t="s">
         <v>38</v>
@@ -2727,7 +2727,7 @@
       <c r="BM12" s="32"/>
       <c r="BN12" s="32"/>
     </row>
-    <row r="13" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="45"/>
       <c r="B13" s="87" t="s">
         <v>59</v>
@@ -2797,7 +2797,7 @@
       <c r="BM13" s="32"/>
       <c r="BN13" s="32"/>
     </row>
-    <row r="14" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="45"/>
       <c r="B14" s="91" t="s">
         <v>61</v>
@@ -2808,16 +2808,16 @@
       <c r="D14" s="93">
         <v>1</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="96">
         <v>0.25</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="96">
         <v>0.25</v>
       </c>
-      <c r="G14" s="100">
+      <c r="G14" s="94">
         <v>44987</v>
       </c>
-      <c r="H14" s="100">
+      <c r="H14" s="94">
         <v>44987</v>
       </c>
       <c r="I14" s="17"/>
@@ -2879,7 +2879,7 @@
       <c r="BM14" s="32"/>
       <c r="BN14" s="32"/>
     </row>
-    <row r="15" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="45"/>
       <c r="B15" s="91" t="s">
         <v>62</v>
@@ -2890,16 +2890,16 @@
       <c r="D15" s="93">
         <v>1</v>
       </c>
-      <c r="E15" s="102">
+      <c r="E15" s="96">
         <v>0.25</v>
       </c>
-      <c r="F15" s="102">
+      <c r="F15" s="96">
         <v>0.25</v>
       </c>
-      <c r="G15" s="100">
+      <c r="G15" s="94">
         <v>44987</v>
       </c>
-      <c r="H15" s="100">
+      <c r="H15" s="94">
         <v>44987</v>
       </c>
       <c r="I15" s="17"/>
@@ -2961,7 +2961,7 @@
       <c r="BM15" s="32"/>
       <c r="BN15" s="32"/>
     </row>
-    <row r="16" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="45"/>
       <c r="B16" s="91" t="s">
         <v>63</v>
@@ -2970,17 +2970,19 @@
         <v>34</v>
       </c>
       <c r="D16" s="93">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="102">
         <v>1</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="100">
+      <c r="E16" s="96">
+        <v>1</v>
+      </c>
+      <c r="F16" s="96">
+        <v>1</v>
+      </c>
+      <c r="G16" s="94">
         <v>44988</v>
       </c>
-      <c r="H16" s="100">
-        <v>44988</v>
+      <c r="H16" s="94">
+        <v>44989</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
@@ -3041,7 +3043,7 @@
       <c r="BM16" s="32"/>
       <c r="BN16" s="32"/>
     </row>
-    <row r="17" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="45"/>
       <c r="B17" s="91" t="s">
         <v>64</v>
@@ -3050,10 +3052,10 @@
         <v>34</v>
       </c>
       <c r="D17" s="93"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="32"/>
@@ -3113,17 +3115,17 @@
       <c r="BM17" s="32"/>
       <c r="BN17" s="32"/>
     </row>
-    <row r="18" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="45"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="93"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="32"/>
@@ -3183,7 +3185,7 @@
       <c r="BM18" s="32"/>
       <c r="BN18" s="32"/>
     </row>
-    <row r="19" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="45" t="s">
         <v>28</v>
       </c>
@@ -3258,7 +3260,7 @@
       <c r="BM19" s="32"/>
       <c r="BN19" s="32"/>
     </row>
-    <row r="20" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="45"/>
       <c r="B20" s="62" t="s">
         <v>43</v>
@@ -3342,7 +3344,7 @@
       <c r="BM20" s="32"/>
       <c r="BN20" s="32"/>
     </row>
-    <row r="21" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="45"/>
       <c r="B21" s="62" t="s">
         <v>45</v>
@@ -3424,7 +3426,7 @@
       <c r="BM21" s="32"/>
       <c r="BN21" s="32"/>
     </row>
-    <row r="22" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="45"/>
       <c r="B22" s="62" t="s">
         <v>47</v>
@@ -3433,10 +3435,10 @@
         <v>34</v>
       </c>
       <c r="D22" s="25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E22" s="73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="73"/>
       <c r="G22" s="80">
@@ -3506,7 +3508,7 @@
       <c r="BM22" s="32"/>
       <c r="BN22" s="32"/>
     </row>
-    <row r="23" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -3581,7 +3583,7 @@
       <c r="BM23" s="32"/>
       <c r="BN23" s="32"/>
     </row>
-    <row r="24" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="44"/>
       <c r="B24" s="63" t="s">
         <v>48</v>
@@ -3665,7 +3667,7 @@
       <c r="BM24" s="32"/>
       <c r="BN24" s="32"/>
     </row>
-    <row r="25" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="44"/>
       <c r="B25" s="63" t="s">
         <v>49</v>
@@ -3749,7 +3751,7 @@
       <c r="BM25" s="32"/>
       <c r="BN25" s="32"/>
     </row>
-    <row r="26" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="44"/>
       <c r="B26" s="63" t="s">
         <v>50</v>
@@ -3833,7 +3835,7 @@
       <c r="BM26" s="32"/>
       <c r="BN26" s="32"/>
     </row>
-    <row r="27" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="44"/>
       <c r="B27" s="63" t="s">
         <v>51</v>
@@ -3917,7 +3919,7 @@
       <c r="BM27" s="32"/>
       <c r="BN27" s="32"/>
     </row>
-    <row r="28" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="44"/>
       <c r="B28" s="63" t="s">
         <v>52</v>
@@ -4001,7 +4003,7 @@
       <c r="BM28" s="32"/>
       <c r="BN28" s="32"/>
     </row>
-    <row r="29" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="44" t="s">
         <v>21</v>
       </c>
@@ -4076,7 +4078,7 @@
       <c r="BM29" s="32"/>
       <c r="BN29" s="32"/>
     </row>
-    <row r="30" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="44"/>
       <c r="B30" s="64" t="s">
         <v>54</v>
@@ -4160,7 +4162,7 @@
       <c r="BM30" s="32"/>
       <c r="BN30" s="32"/>
     </row>
-    <row r="31" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="44"/>
       <c r="B31" s="64" t="s">
         <v>55</v>
@@ -4244,7 +4246,7 @@
       <c r="BM31" s="32"/>
       <c r="BN31" s="32"/>
     </row>
-    <row r="32" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="44"/>
       <c r="B32" s="64" t="s">
         <v>56</v>
@@ -4328,7 +4330,7 @@
       <c r="BM32" s="32"/>
       <c r="BN32" s="32"/>
     </row>
-    <row r="33" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="44" t="s">
         <v>22</v>
       </c>
@@ -4338,15 +4340,15 @@
       <c r="C33" s="60"/>
       <c r="D33" s="16">
         <f>AVERAGE(D9:D32)</f>
-        <v>0.3611111111111111</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E33" s="60">
         <f>SUM(E9:E32)</f>
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="F33" s="60">
         <f>SUM(F9:F32)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G33" s="51"/>
       <c r="H33" s="51"/>
@@ -4412,29 +4414,29 @@
       <c r="BM33" s="32"/>
       <c r="BN33" s="32"/>
     </row>
-    <row r="34" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="14"/>
       <c r="H35" s="46"/>
     </row>
-    <row r="36" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BH4:BN4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:F8 D9:D12 D13:F13 D14:D33">
     <cfRule type="dataBar" priority="14">
@@ -4504,86 +4506,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="87.08984375" style="34" customWidth="1"/>
-    <col min="2" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="87.1015625" style="34" customWidth="1"/>
+    <col min="2" max="16384" width="9.1015625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="36" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:2" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="35"/>
     </row>
-    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="41"/>
     </row>
-    <row r="4" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="34" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="34" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A8" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.5">
       <c r="A9" s="39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A11" s="38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.5">
       <c r="A12" s="39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A14" s="38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.5">
       <c r="A16" s="39" t="s">
         <v>12</v>
       </c>

--- a/docs/Planung/Gantt-Zeitplan.xlsx
+++ b/docs/Planung/Gantt-Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DBD021-9456-4599-9EA0-84D9F093009D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6219A4-C688-46E2-AFA3-57C8CB534ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,9 +227,6 @@
     <t>Navigation</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Listansicht</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>Bausteinsicht Visualisieren</t>
+  </si>
+  <si>
+    <t>Login/Registrieransicht</t>
   </si>
 </sst>
 </file>
@@ -1007,6 +1007,9 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1021,9 +1024,6 @@
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1596,8 +1596,8 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1646,106 +1646,106 @@
       <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="100">
+      <c r="D3" s="97"/>
+      <c r="E3" s="101">
         <v>44985</v>
       </c>
-      <c r="F3" s="101"/>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="97">
+      <c r="K4" s="98">
         <f>K5</f>
         <v>44984</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="97">
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="98">
         <f>R5</f>
         <v>44991</v>
       </c>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="97">
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="98">
         <f>Y5</f>
         <v>44998</v>
       </c>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="97">
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="98">
         <f>AF5</f>
         <v>45005</v>
       </c>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="97">
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="98">
         <f>AM5</f>
         <v>45012</v>
       </c>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="97">
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="99"/>
+      <c r="AR4" s="99"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="98">
         <f>AT5</f>
         <v>45019</v>
       </c>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="97">
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="99"/>
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="98">
         <f>BA5</f>
         <v>45026</v>
       </c>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="97">
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="99"/>
+      <c r="BF4" s="99"/>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="98">
         <f>BH5</f>
         <v>45033</v>
       </c>
-      <c r="BI4" s="98"/>
-      <c r="BJ4" s="98"/>
-      <c r="BK4" s="98"/>
-      <c r="BL4" s="98"/>
-      <c r="BM4" s="98"/>
-      <c r="BN4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="99"/>
+      <c r="BM4" s="99"/>
+      <c r="BN4" s="100"/>
     </row>
     <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="45" t="s">
@@ -1989,10 +1989,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>41</v>
@@ -2472,7 +2472,7 @@
     <row r="10" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="44"/>
       <c r="B10" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>34</v>
@@ -2730,7 +2730,7 @@
     <row r="13" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="45"/>
       <c r="B13" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="88"/>
       <c r="D13" s="89"/>
@@ -2800,7 +2800,7 @@
     <row r="14" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="45"/>
       <c r="B14" s="91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="92" t="s">
         <v>34</v>
@@ -2882,7 +2882,7 @@
     <row r="15" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="45"/>
       <c r="B15" s="91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="92" t="s">
         <v>34</v>
@@ -2964,7 +2964,7 @@
     <row r="16" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="45"/>
       <c r="B16" s="91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="92" t="s">
         <v>34</v>
@@ -3046,7 +3046,7 @@
     <row r="17" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="45"/>
       <c r="B17" s="91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="92" t="s">
         <v>34</v>
@@ -3276,11 +3276,11 @@
       </c>
       <c r="F20" s="73"/>
       <c r="G20" s="80">
-        <v>45003</v>
+        <v>44990</v>
       </c>
       <c r="H20" s="80">
         <f>G20+0</f>
-        <v>45003</v>
+        <v>44990</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="17">
@@ -3361,11 +3361,11 @@
       <c r="F21" s="73"/>
       <c r="G21" s="80">
         <f>H20</f>
-        <v>45003</v>
+        <v>44990</v>
       </c>
       <c r="H21" s="80">
         <f>G21</f>
-        <v>45003</v>
+        <v>44990</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -3443,11 +3443,11 @@
       <c r="F22" s="73"/>
       <c r="G22" s="80">
         <f>H21</f>
-        <v>45003</v>
+        <v>44990</v>
       </c>
       <c r="H22" s="80">
         <f>G22</f>
-        <v>45003</v>
+        <v>44990</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
@@ -3592,18 +3592,20 @@
         <v>34</v>
       </c>
       <c r="D24" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="75">
         <v>0.5</v>
       </c>
-      <c r="F24" s="75"/>
+      <c r="F24" s="75">
+        <v>0.5</v>
+      </c>
       <c r="G24" s="83">
-        <v>45004</v>
+        <v>44989</v>
       </c>
       <c r="H24" s="83">
         <f>G24+0</f>
-        <v>45004</v>
+        <v>44989</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17">
@@ -3676,18 +3678,20 @@
         <v>34</v>
       </c>
       <c r="D25" s="28">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E25" s="75">
         <v>0.5</v>
       </c>
-      <c r="F25" s="75"/>
+      <c r="F25" s="75">
+        <v>1</v>
+      </c>
       <c r="G25" s="83">
-        <v>45004</v>
+        <v>44989</v>
       </c>
       <c r="H25" s="83">
-        <f t="shared" ref="H25:H28" si="6">G25+0</f>
-        <v>45004</v>
+        <f>G25+0</f>
+        <v>44989</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17">
@@ -3754,29 +3758,31 @@
     <row r="26" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="44"/>
       <c r="B26" s="63" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C26" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E26" s="75">
         <v>1</v>
       </c>
-      <c r="F26" s="75"/>
+      <c r="F26" s="75">
+        <v>1.5</v>
+      </c>
       <c r="G26" s="83">
-        <v>45004</v>
+        <v>44989</v>
       </c>
       <c r="H26" s="83">
-        <f t="shared" si="6"/>
-        <v>45004</v>
+        <f>G26+1</f>
+        <v>44990</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
@@ -3838,29 +3844,31 @@
     <row r="27" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="44"/>
       <c r="B27" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="75">
         <v>0.5</v>
       </c>
-      <c r="F27" s="75"/>
+      <c r="F27" s="75">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="83">
-        <v>45004</v>
+        <v>44989</v>
       </c>
       <c r="H27" s="83">
-        <f t="shared" si="6"/>
-        <v>45004</v>
+        <f>G27+1</f>
+        <v>44990</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
@@ -3922,29 +3930,31 @@
     <row r="28" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="44"/>
       <c r="B28" s="63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="75">
         <v>0.5</v>
       </c>
-      <c r="F28" s="75"/>
+      <c r="F28" s="75">
+        <v>1</v>
+      </c>
       <c r="G28" s="83">
-        <v>45004</v>
+        <v>44989</v>
       </c>
       <c r="H28" s="83">
-        <f t="shared" si="6"/>
-        <v>45004</v>
+        <f>G28+1</f>
+        <v>44990</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
@@ -4008,7 +4018,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="58"/>
       <c r="D29" s="30"/>
@@ -4081,7 +4091,7 @@
     <row r="30" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="44"/>
       <c r="B30" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="59" t="s">
         <v>34</v>
@@ -4165,7 +4175,7 @@
     <row r="31" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="44"/>
       <c r="B31" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="59" t="s">
         <v>34</v>
@@ -4181,7 +4191,7 @@
         <v>45005</v>
       </c>
       <c r="H31" s="86">
-        <f t="shared" ref="H31:H32" si="7">G31</f>
+        <f t="shared" ref="H31:H32" si="6">G31</f>
         <v>45005</v>
       </c>
       <c r="I31" s="17"/>
@@ -4249,7 +4259,7 @@
     <row r="32" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="44"/>
       <c r="B32" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="59" t="s">
         <v>34</v>
@@ -4265,7 +4275,7 @@
         <v>45005</v>
       </c>
       <c r="H32" s="86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>45005</v>
       </c>
       <c r="I32" s="17"/>
@@ -4340,7 +4350,7 @@
       <c r="C33" s="60"/>
       <c r="D33" s="16">
         <f>AVERAGE(D9:D32)</f>
-        <v>0.41666666666666669</v>
+        <v>0.66944444444444451</v>
       </c>
       <c r="E33" s="60">
         <f>SUM(E9:E32)</f>
@@ -4348,7 +4358,7 @@
       </c>
       <c r="F33" s="60">
         <f>SUM(F9:F32)</f>
-        <v>8</v>
+        <v>12.75</v>
       </c>
       <c r="G33" s="51"/>
       <c r="H33" s="51"/>
@@ -4426,17 +4436,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BH4:BN4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:F8 D9:D12 D13:F13 D14:D33">
     <cfRule type="dataBar" priority="14">

--- a/docs/Planung/Gantt-Zeitplan.xlsx
+++ b/docs/Planung/Gantt-Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6219A4-C688-46E2-AFA3-57C8CB534ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340898A8-1086-4AA9-8951-B6816FFDE844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1596,8 +1596,8 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3678,7 +3678,7 @@
         <v>34</v>
       </c>
       <c r="D25" s="28">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E25" s="75">
         <v>0.5</v>
@@ -3764,7 +3764,7 @@
         <v>34</v>
       </c>
       <c r="D26" s="28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E26" s="75">
         <v>1</v>
@@ -4097,10 +4097,10 @@
         <v>34</v>
       </c>
       <c r="D30" s="31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E30" s="77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="77"/>
       <c r="G30" s="86">
@@ -4350,11 +4350,11 @@
       <c r="C33" s="60"/>
       <c r="D33" s="16">
         <f>AVERAGE(D9:D32)</f>
-        <v>0.66944444444444451</v>
+        <v>0.70555555555555549</v>
       </c>
       <c r="E33" s="60">
         <f>SUM(E9:E32)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" s="60">
         <f>SUM(F9:F32)</f>

--- a/docs/Planung/Gantt-Zeitplan.xlsx
+++ b/docs/Planung/Gantt-Zeitplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340898A8-1086-4AA9-8951-B6816FFDE844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C707B3-7FC7-B64F-92F9-50DBED5C1605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1007,40 +1007,40 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
-    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Komma" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Neutral" xfId="13" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="14" builtinId="10"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Notiz" xfId="14" builtinId="10"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="12">
@@ -1596,25 +1596,25 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.62890625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="33.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.62890625" customWidth="1"/>
-    <col min="4" max="6" width="10.62890625" customWidth="1"/>
-    <col min="7" max="7" width="9.89453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.89453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.62890625" customWidth="1"/>
-    <col min="10" max="10" width="6.1015625" hidden="1" customWidth="1"/>
-    <col min="11" max="66" width="2.5234375" customWidth="1"/>
-    <col min="71" max="72" width="10.3671875"/>
+    <col min="1" max="1" width="2.6640625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="66" width="2.5" customWidth="1"/>
+    <col min="71" max="72" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>20</v>
       </c>
@@ -1639,115 +1639,115 @@
       </c>
       <c r="K2" s="68"/>
     </row>
-    <row r="3" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="101">
+      <c r="D3" s="102"/>
+      <c r="E3" s="100">
         <v>44985</v>
       </c>
-      <c r="F3" s="102"/>
-    </row>
-    <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="101"/>
+    </row>
+    <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="98">
+      <c r="K4" s="97">
         <f>K5</f>
         <v>44984</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="98">
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="97">
         <f>R5</f>
         <v>44991</v>
       </c>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="98">
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="97">
         <f>Y5</f>
         <v>44998</v>
       </c>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="98">
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="97">
         <f>AF5</f>
         <v>45005</v>
       </c>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="98">
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="97">
         <f>AM5</f>
         <v>45012</v>
       </c>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="100"/>
-      <c r="AT4" s="98">
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="97">
         <f>AT5</f>
         <v>45019</v>
       </c>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="99"/>
-      <c r="AZ4" s="100"/>
-      <c r="BA4" s="98">
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="97">
         <f>BA5</f>
         <v>45026</v>
       </c>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="99"/>
-      <c r="BF4" s="99"/>
-      <c r="BG4" s="100"/>
-      <c r="BH4" s="98">
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="98"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="98"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="97">
         <f>BH5</f>
         <v>45033</v>
       </c>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="99"/>
-      <c r="BM4" s="99"/>
-      <c r="BN4" s="100"/>
-    </row>
-    <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BI4" s="98"/>
+      <c r="BJ4" s="98"/>
+      <c r="BK4" s="98"/>
+      <c r="BL4" s="98"/>
+      <c r="BM4" s="98"/>
+      <c r="BN4" s="99"/>
+    </row>
+    <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
         <v>25</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="6" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>26</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:66" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:66" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>30</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="BM7" s="32"/>
       <c r="BN7" s="32"/>
     </row>
-    <row r="8" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>27</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="BM8" s="32"/>
       <c r="BN8" s="32"/>
     </row>
-    <row r="9" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>31</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="BM9" s="32"/>
       <c r="BN9" s="32"/>
     </row>
-    <row r="10" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="61" t="s">
         <v>59</v>
@@ -2556,7 +2556,7 @@
       <c r="BM10" s="32"/>
       <c r="BN10" s="32"/>
     </row>
-    <row r="11" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="61" t="s">
         <v>37</v>
@@ -2643,7 +2643,7 @@
       <c r="BM11" s="32"/>
       <c r="BN11" s="32"/>
     </row>
-    <row r="12" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="61" t="s">
         <v>38</v>
@@ -2727,7 +2727,7 @@
       <c r="BM12" s="32"/>
       <c r="BN12" s="32"/>
     </row>
-    <row r="13" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="87" t="s">
         <v>58</v>
@@ -2797,7 +2797,7 @@
       <c r="BM13" s="32"/>
       <c r="BN13" s="32"/>
     </row>
-    <row r="14" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="91" t="s">
         <v>60</v>
@@ -2879,7 +2879,7 @@
       <c r="BM14" s="32"/>
       <c r="BN14" s="32"/>
     </row>
-    <row r="15" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="91" t="s">
         <v>61</v>
@@ -2961,7 +2961,7 @@
       <c r="BM15" s="32"/>
       <c r="BN15" s="32"/>
     </row>
-    <row r="16" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="91" t="s">
         <v>62</v>
@@ -3043,7 +3043,7 @@
       <c r="BM16" s="32"/>
       <c r="BN16" s="32"/>
     </row>
-    <row r="17" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="91" t="s">
         <v>63</v>
@@ -3115,7 +3115,7 @@
       <c r="BM17" s="32"/>
       <c r="BN17" s="32"/>
     </row>
-    <row r="18" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92" t="s">
@@ -3185,7 +3185,7 @@
       <c r="BM18" s="32"/>
       <c r="BN18" s="32"/>
     </row>
-    <row r="19" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>28</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="BM19" s="32"/>
       <c r="BN19" s="32"/>
     </row>
-    <row r="20" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="62" t="s">
         <v>43</v>
@@ -3274,7 +3274,9 @@
       <c r="E20" s="73">
         <v>1</v>
       </c>
-      <c r="F20" s="73"/>
+      <c r="F20" s="73">
+        <v>1</v>
+      </c>
       <c r="G20" s="80">
         <v>44990</v>
       </c>
@@ -3344,7 +3346,7 @@
       <c r="BM20" s="32"/>
       <c r="BN20" s="32"/>
     </row>
-    <row r="21" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="62" t="s">
         <v>45</v>
@@ -3353,12 +3355,14 @@
         <v>34</v>
       </c>
       <c r="D21" s="25">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E21" s="73">
         <v>0.5</v>
       </c>
-      <c r="F21" s="73"/>
+      <c r="F21" s="73">
+        <v>0.5</v>
+      </c>
       <c r="G21" s="80">
         <f>H20</f>
         <v>44990</v>
@@ -3426,7 +3430,7 @@
       <c r="BM21" s="32"/>
       <c r="BN21" s="32"/>
     </row>
-    <row r="22" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="62" t="s">
         <v>47</v>
@@ -3435,12 +3439,14 @@
         <v>34</v>
       </c>
       <c r="D22" s="25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="73">
         <v>1</v>
       </c>
-      <c r="F22" s="73"/>
+      <c r="F22" s="73">
+        <v>1</v>
+      </c>
       <c r="G22" s="80">
         <f>H21</f>
         <v>44990</v>
@@ -3508,7 +3514,7 @@
       <c r="BM22" s="32"/>
       <c r="BN22" s="32"/>
     </row>
-    <row r="23" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -3583,7 +3589,7 @@
       <c r="BM23" s="32"/>
       <c r="BN23" s="32"/>
     </row>
-    <row r="24" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="63" t="s">
         <v>48</v>
@@ -3669,7 +3675,7 @@
       <c r="BM24" s="32"/>
       <c r="BN24" s="32"/>
     </row>
-    <row r="25" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="63" t="s">
         <v>49</v>
@@ -3755,7 +3761,7 @@
       <c r="BM25" s="32"/>
       <c r="BN25" s="32"/>
     </row>
-    <row r="26" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="63" t="s">
         <v>64</v>
@@ -3841,7 +3847,7 @@
       <c r="BM26" s="32"/>
       <c r="BN26" s="32"/>
     </row>
-    <row r="27" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="63" t="s">
         <v>50</v>
@@ -3853,10 +3859,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="75">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="G27" s="83">
         <v>44989</v>
@@ -3927,7 +3933,7 @@
       <c r="BM27" s="32"/>
       <c r="BN27" s="32"/>
     </row>
-    <row r="28" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="63" t="s">
         <v>51</v>
@@ -4013,7 +4019,7 @@
       <c r="BM28" s="32"/>
       <c r="BN28" s="32"/>
     </row>
-    <row r="29" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>21</v>
       </c>
@@ -4088,7 +4094,7 @@
       <c r="BM29" s="32"/>
       <c r="BN29" s="32"/>
     </row>
-    <row r="30" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
       <c r="B30" s="64" t="s">
         <v>53</v>
@@ -4100,15 +4106,15 @@
         <v>0.2</v>
       </c>
       <c r="E30" s="77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="77"/>
       <c r="G30" s="86">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="H30" s="86">
         <f>G30</f>
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17">
@@ -4172,7 +4178,7 @@
       <c r="BM30" s="32"/>
       <c r="BN30" s="32"/>
     </row>
-    <row r="31" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44"/>
       <c r="B31" s="64" t="s">
         <v>54</v>
@@ -4181,12 +4187,14 @@
         <v>34</v>
       </c>
       <c r="D31" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="77">
         <v>1</v>
       </c>
-      <c r="F31" s="77"/>
+      <c r="F31" s="77">
+        <v>1</v>
+      </c>
       <c r="G31" s="86">
         <v>45005</v>
       </c>
@@ -4256,7 +4264,7 @@
       <c r="BM31" s="32"/>
       <c r="BN31" s="32"/>
     </row>
-    <row r="32" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44"/>
       <c r="B32" s="64" t="s">
         <v>55</v>
@@ -4265,12 +4273,14 @@
         <v>34</v>
       </c>
       <c r="D32" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="77">
         <v>0.5</v>
       </c>
-      <c r="F32" s="77"/>
+      <c r="F32" s="77">
+        <v>0.5</v>
+      </c>
       <c r="G32" s="86">
         <v>45005</v>
       </c>
@@ -4340,7 +4350,7 @@
       <c r="BM32" s="32"/>
       <c r="BN32" s="32"/>
     </row>
-    <row r="33" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>22</v>
       </c>
@@ -4350,15 +4360,15 @@
       <c r="C33" s="60"/>
       <c r="D33" s="16">
         <f>AVERAGE(D9:D32)</f>
-        <v>0.70555555555555549</v>
+        <v>0.89444444444444449</v>
       </c>
       <c r="E33" s="60">
         <f>SUM(E9:E32)</f>
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="F33" s="60">
         <f>SUM(F9:F32)</f>
-        <v>12.75</v>
+        <v>17.25</v>
       </c>
       <c r="G33" s="51"/>
       <c r="H33" s="51"/>
@@ -4424,29 +4434,29 @@
       <c r="BM33" s="32"/>
       <c r="BN33" s="32"/>
     </row>
-    <row r="34" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="14"/>
       <c r="H35" s="46"/>
     </row>
-    <row r="36" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BH4:BN4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:F8 D9:D12 D13:F13 D14:D33">
     <cfRule type="dataBar" priority="14">
@@ -4516,86 +4526,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.1015625" style="34" customWidth="1"/>
-    <col min="2" max="16384" width="9.1015625" style="2"/>
+    <col min="1" max="1" width="87.1640625" style="34" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:2" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="35"/>
     </row>
-    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="41"/>
     </row>
-    <row r="4" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="4" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="34" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" s="34" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="8" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="11" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
+    <row r="14" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
         <v>12</v>
       </c>

--- a/docs/Planung/Gantt-Zeitplan.xlsx
+++ b/docs/Planung/Gantt-Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C707B3-7FC7-B64F-92F9-50DBED5C1605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F4975D-A535-544D-AB0D-970A4ED7A5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Project Start:</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Continius Deployment Aufsetzten</t>
-  </si>
-  <si>
-    <t>Bausteinsicht Visualisieren</t>
   </si>
   <si>
     <t>Login/Registrieransicht</t>
@@ -1007,6 +1004,9 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1021,9 +1021,6 @@
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1593,11 +1590,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN36"/>
+  <dimension ref="A1:BN34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1646,106 +1643,106 @@
       <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="100">
+      <c r="D3" s="97"/>
+      <c r="E3" s="101">
         <v>44985</v>
       </c>
-      <c r="F3" s="101"/>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="97">
+      <c r="K4" s="98">
         <f>K5</f>
         <v>44984</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="97">
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="98">
         <f>R5</f>
         <v>44991</v>
       </c>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="97">
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="98">
         <f>Y5</f>
         <v>44998</v>
       </c>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="97">
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="98">
         <f>AF5</f>
         <v>45005</v>
       </c>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="97">
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="98">
         <f>AM5</f>
         <v>45012</v>
       </c>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="97">
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="99"/>
+      <c r="AR4" s="99"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="98">
         <f>AT5</f>
         <v>45019</v>
       </c>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="97">
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="99"/>
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="98">
         <f>BA5</f>
         <v>45026</v>
       </c>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="97">
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="99"/>
+      <c r="BF4" s="99"/>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="98">
         <f>BH5</f>
         <v>45033</v>
       </c>
-      <c r="BI4" s="98"/>
-      <c r="BJ4" s="98"/>
-      <c r="BK4" s="98"/>
-      <c r="BL4" s="98"/>
-      <c r="BM4" s="98"/>
-      <c r="BN4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="99"/>
+      <c r="BM4" s="99"/>
+      <c r="BN4" s="100"/>
     </row>
     <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
@@ -2320,7 +2317,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="str">
-        <f t="shared" ref="J8:J33" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="J8:J31" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="K8" s="32"/>
@@ -3044,20 +3041,23 @@
       <c r="BN16" s="32"/>
     </row>
     <row r="17" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
+      <c r="A17" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
@@ -3117,17 +3117,33 @@
     </row>
     <row r="18" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92" t="s">
+      <c r="B18" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
+      <c r="E18" s="73">
+        <v>1</v>
+      </c>
+      <c r="F18" s="73">
+        <v>1</v>
+      </c>
+      <c r="G18" s="80">
+        <v>44990</v>
+      </c>
+      <c r="H18" s="80">
+        <f>G18+0</f>
+        <v>44990</v>
+      </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="J18" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -3186,23 +3202,32 @@
       <c r="BN18" s="32"/>
     </row>
     <row r="19" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="80">
+        <f>H18</f>
+        <v>44990</v>
+      </c>
+      <c r="H19" s="80">
+        <f>G19</f>
+        <v>44990</v>
+      </c>
       <c r="I19" s="17"/>
-      <c r="J19" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J19" s="17"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -3263,13 +3288,13 @@
     <row r="20" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="62" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="73">
         <v>1</v>
@@ -3278,17 +3303,15 @@
         <v>1</v>
       </c>
       <c r="G20" s="80">
+        <f>H19</f>
         <v>44990</v>
       </c>
       <c r="H20" s="80">
-        <f>G20+0</f>
+        <f>G20</f>
         <v>44990</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="17">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="J20" s="17"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -3347,32 +3370,23 @@
       <c r="BN20" s="32"/>
     </row>
     <row r="21" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="80">
-        <f>H20</f>
-        <v>44990</v>
-      </c>
-      <c r="H21" s="80">
-        <f>G21</f>
-        <v>44990</v>
-      </c>
+      <c r="A21" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="J21" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -3431,32 +3445,34 @@
       <c r="BN21" s="32"/>
     </row>
     <row r="22" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="55" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="28">
         <v>1</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="83">
+        <v>44989</v>
+      </c>
+      <c r="H22" s="83">
+        <f>G22+0</f>
+        <v>44989</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F22" s="73">
-        <v>1</v>
-      </c>
-      <c r="G22" s="80">
-        <f>H21</f>
-        <v>44990</v>
-      </c>
-      <c r="H22" s="80">
-        <f>G22</f>
-        <v>44990</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -3515,22 +3531,33 @@
       <c r="BN22" s="32"/>
     </row>
     <row r="23" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="82"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1</v>
+      </c>
+      <c r="E23" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="75">
+        <v>1</v>
+      </c>
+      <c r="G23" s="83">
+        <v>44989</v>
+      </c>
+      <c r="H23" s="83">
+        <f>G23+0</f>
+        <v>44989</v>
+      </c>
       <c r="I23" s="17"/>
-      <c r="J23" s="17" t="str">
+      <c r="J23" s="17">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
@@ -3592,7 +3619,7 @@
     <row r="24" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="63" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>34</v>
@@ -3601,22 +3628,22 @@
         <v>1</v>
       </c>
       <c r="E24" s="75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F24" s="75">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G24" s="83">
         <v>44989</v>
       </c>
       <c r="H24" s="83">
-        <f>G24+0</f>
-        <v>44989</v>
+        <f>G24+1</f>
+        <v>44990</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
@@ -3678,7 +3705,7 @@
     <row r="25" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>34</v>
@@ -3687,22 +3714,22 @@
         <v>1</v>
       </c>
       <c r="E25" s="75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F25" s="75">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G25" s="83">
         <v>44989</v>
       </c>
       <c r="H25" s="83">
-        <f>G25+0</f>
-        <v>44989</v>
+        <f>G25+1</f>
+        <v>44990</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
@@ -3764,7 +3791,7 @@
     <row r="26" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="63" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C26" s="57" t="s">
         <v>34</v>
@@ -3773,10 +3800,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="75">
         <v>1</v>
-      </c>
-      <c r="F26" s="75">
-        <v>1.5</v>
       </c>
       <c r="G26" s="83">
         <v>44989</v>
@@ -3848,33 +3875,22 @@
       <c r="BN26" s="32"/>
     </row>
     <row r="27" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="28">
-        <v>1</v>
-      </c>
-      <c r="E27" s="75">
-        <v>1</v>
-      </c>
-      <c r="F27" s="75">
-        <v>1.25</v>
-      </c>
-      <c r="G27" s="83">
-        <v>44989</v>
-      </c>
-      <c r="H27" s="83">
-        <f>G27+1</f>
-        <v>44990</v>
-      </c>
+      <c r="A27" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="85"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="17">
+      <c r="J27" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
@@ -3935,32 +3951,32 @@
     </row>
     <row r="28" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
-      <c r="B28" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="57" t="s">
+      <c r="B28" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="77">
         <v>1</v>
       </c>
-      <c r="E28" s="75">
+      <c r="F28" s="77">
         <v>0.5</v>
       </c>
-      <c r="F28" s="75">
-        <v>1</v>
-      </c>
-      <c r="G28" s="83">
-        <v>44989</v>
-      </c>
-      <c r="H28" s="83">
-        <f>G28+1</f>
-        <v>44990</v>
+      <c r="G28" s="86">
+        <v>45007</v>
+      </c>
+      <c r="H28" s="86">
+        <f>G28</f>
+        <v>45007</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
@@ -4020,22 +4036,33 @@
       <c r="BN28" s="32"/>
     </row>
     <row r="29" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="31">
+        <v>1</v>
+      </c>
+      <c r="E29" s="77">
+        <v>1</v>
+      </c>
+      <c r="F29" s="77">
+        <v>1</v>
+      </c>
+      <c r="G29" s="86">
+        <v>45005</v>
+      </c>
+      <c r="H29" s="86">
+        <f t="shared" ref="H29:H30" si="6">G29</f>
+        <v>45005</v>
+      </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="17" t="str">
+      <c r="J29" s="17">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
@@ -4097,24 +4124,26 @@
     <row r="30" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
       <c r="B30" s="64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30" s="59" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="31">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="77">
-        <v>1</v>
-      </c>
-      <c r="F30" s="77"/>
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="77">
+        <v>0.5</v>
+      </c>
       <c r="G30" s="86">
-        <v>45007</v>
+        <v>45005</v>
       </c>
       <c r="H30" s="86">
-        <f>G30</f>
-        <v>45007</v>
+        <f t="shared" si="6"/>
+        <v>45005</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17">
@@ -4179,33 +4208,31 @@
       <c r="BN30" s="32"/>
     </row>
     <row r="31" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="77">
-        <v>1</v>
-      </c>
-      <c r="F31" s="77">
-        <v>1</v>
-      </c>
-      <c r="G31" s="86">
-        <v>45005</v>
-      </c>
-      <c r="H31" s="86">
-        <f t="shared" ref="H31:H32" si="6">G31</f>
-        <v>45005</v>
-      </c>
+      <c r="A31" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="16">
+        <f>AVERAGE(D9:D30)</f>
+        <v>0.89444444444444449</v>
+      </c>
+      <c r="E31" s="60">
+        <f>SUM(E9:E30)</f>
+        <v>15.5</v>
+      </c>
+      <c r="F31" s="60">
+        <f>SUM(F9:F30)</f>
+        <v>17.75</v>
+      </c>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="17">
+      <c r="J31" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
@@ -4264,201 +4291,31 @@
       <c r="BM31" s="32"/>
       <c r="BN31" s="32"/>
     </row>
-    <row r="32" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="31">
-        <v>1</v>
-      </c>
-      <c r="E32" s="77">
-        <v>0.5</v>
-      </c>
-      <c r="F32" s="77">
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="86">
-        <v>45005</v>
-      </c>
-      <c r="H32" s="86">
-        <f t="shared" si="6"/>
-        <v>45005</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-      <c r="AT32" s="32"/>
-      <c r="AU32" s="32"/>
-      <c r="AV32" s="32"/>
-      <c r="AW32" s="32"/>
-      <c r="AX32" s="32"/>
-      <c r="AY32" s="32"/>
-      <c r="AZ32" s="32"/>
-      <c r="BA32" s="32"/>
-      <c r="BB32" s="32"/>
-      <c r="BC32" s="32"/>
-      <c r="BD32" s="32"/>
-      <c r="BE32" s="32"/>
-      <c r="BF32" s="32"/>
-      <c r="BG32" s="32"/>
-      <c r="BH32" s="32"/>
-      <c r="BI32" s="32"/>
-      <c r="BJ32" s="32"/>
-      <c r="BK32" s="32"/>
-      <c r="BL32" s="32"/>
-      <c r="BM32" s="32"/>
-      <c r="BN32" s="32"/>
-    </row>
-    <row r="33" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="16">
-        <f>AVERAGE(D9:D32)</f>
-        <v>0.89444444444444449</v>
-      </c>
-      <c r="E33" s="60">
-        <f>SUM(E9:E32)</f>
-        <v>15.5</v>
-      </c>
-      <c r="F33" s="60">
-        <f>SUM(F9:F32)</f>
-        <v>17.25</v>
-      </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="32"/>
-      <c r="AU33" s="32"/>
-      <c r="AV33" s="32"/>
-      <c r="AW33" s="32"/>
-      <c r="AX33" s="32"/>
-      <c r="AY33" s="32"/>
-      <c r="AZ33" s="32"/>
-      <c r="BA33" s="32"/>
-      <c r="BB33" s="32"/>
-      <c r="BC33" s="32"/>
-      <c r="BD33" s="32"/>
-      <c r="BE33" s="32"/>
-      <c r="BF33" s="32"/>
-      <c r="BG33" s="32"/>
-      <c r="BH33" s="32"/>
-      <c r="BI33" s="32"/>
-      <c r="BJ33" s="32"/>
-      <c r="BK33" s="32"/>
-      <c r="BL33" s="32"/>
-      <c r="BM33" s="32"/>
-      <c r="BN33" s="32"/>
-    </row>
-    <row r="34" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="14"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="15"/>
+    <row r="32" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="14"/>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BH4:BN4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:F8 D9:D12 D13:F13 D14:D33">
+  <conditionalFormatting sqref="D7:F8 D9:D12 D13:F13 D14:D31">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4472,12 +4329,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:BN33">
+  <conditionalFormatting sqref="K5:BN31">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:BN33">
+  <conditionalFormatting sqref="K7:BN31">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
@@ -4512,7 +4369,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:F8 D9:D12 D13:F13 D14:D33</xm:sqref>
+          <xm:sqref>D7:F8 D9:D12 D13:F13 D14:D31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/Planung/Gantt-Zeitplan.xlsx
+++ b/docs/Planung/Gantt-Zeitplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C707B3-7FC7-B64F-92F9-50DBED5C1605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AAD4F7-F9B6-4E18-A3E3-C7E86C6C215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1007,6 +1007,9 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1022,25 +1025,22 @@
     <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
+    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
-    <cellStyle name="Komma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Name" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Neutral" xfId="13" builtinId="28"/>
-    <cellStyle name="Notiz" xfId="14" builtinId="10"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="14" builtinId="10"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Überschrift" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="12">
@@ -1596,25 +1596,25 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="66" width="2.5" customWidth="1"/>
-    <col min="71" max="72" width="10.33203125"/>
+    <col min="1" max="1" width="2.68359375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="33.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.68359375" customWidth="1"/>
+    <col min="4" max="6" width="10.68359375" customWidth="1"/>
+    <col min="7" max="7" width="9.83984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.68359375" customWidth="1"/>
+    <col min="10" max="10" width="6.15625" hidden="1" customWidth="1"/>
+    <col min="11" max="66" width="2.47265625" customWidth="1"/>
+    <col min="71" max="72" width="10.3125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="44" t="s">
         <v>20</v>
       </c>
@@ -1639,115 +1639,115 @@
       </c>
       <c r="K2" s="68"/>
     </row>
-    <row r="3" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="100">
+      <c r="D3" s="97"/>
+      <c r="E3" s="101">
         <v>44985</v>
       </c>
-      <c r="F3" s="101"/>
-    </row>
-    <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="102"/>
+    </row>
+    <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="97">
+      <c r="K4" s="98">
         <f>K5</f>
         <v>44984</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="97">
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="98">
         <f>R5</f>
         <v>44991</v>
       </c>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="97">
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="98">
         <f>Y5</f>
         <v>44998</v>
       </c>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="97">
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="98">
         <f>AF5</f>
         <v>45005</v>
       </c>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="97">
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="98">
         <f>AM5</f>
         <v>45012</v>
       </c>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="97">
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="99"/>
+      <c r="AR4" s="99"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="98">
         <f>AT5</f>
         <v>45019</v>
       </c>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="97">
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="99"/>
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="98">
         <f>BA5</f>
         <v>45026</v>
       </c>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="97">
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="99"/>
+      <c r="BF4" s="99"/>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="98">
         <f>BH5</f>
         <v>45033</v>
       </c>
-      <c r="BI4" s="98"/>
-      <c r="BJ4" s="98"/>
-      <c r="BK4" s="98"/>
-      <c r="BL4" s="98"/>
-      <c r="BM4" s="98"/>
-      <c r="BN4" s="99"/>
-    </row>
-    <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="99"/>
+      <c r="BM4" s="99"/>
+      <c r="BN4" s="100"/>
+    </row>
+    <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="45" t="s">
         <v>25</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="6" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="45" t="s">
         <v>26</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:66" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="44" t="s">
         <v>30</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="BM7" s="32"/>
       <c r="BN7" s="32"/>
     </row>
-    <row r="8" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="45" t="s">
         <v>27</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="BM8" s="32"/>
       <c r="BN8" s="32"/>
     </row>
-    <row r="9" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="45" t="s">
         <v>31</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="BM9" s="32"/>
       <c r="BN9" s="32"/>
     </row>
-    <row r="10" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="44"/>
       <c r="B10" s="61" t="s">
         <v>59</v>
@@ -2556,7 +2556,7 @@
       <c r="BM10" s="32"/>
       <c r="BN10" s="32"/>
     </row>
-    <row r="11" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="44"/>
       <c r="B11" s="61" t="s">
         <v>37</v>
@@ -2643,7 +2643,7 @@
       <c r="BM11" s="32"/>
       <c r="BN11" s="32"/>
     </row>
-    <row r="12" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="44"/>
       <c r="B12" s="61" t="s">
         <v>38</v>
@@ -2727,7 +2727,7 @@
       <c r="BM12" s="32"/>
       <c r="BN12" s="32"/>
     </row>
-    <row r="13" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="45"/>
       <c r="B13" s="87" t="s">
         <v>58</v>
@@ -2797,7 +2797,7 @@
       <c r="BM13" s="32"/>
       <c r="BN13" s="32"/>
     </row>
-    <row r="14" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="45"/>
       <c r="B14" s="91" t="s">
         <v>60</v>
@@ -2879,7 +2879,7 @@
       <c r="BM14" s="32"/>
       <c r="BN14" s="32"/>
     </row>
-    <row r="15" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="45"/>
       <c r="B15" s="91" t="s">
         <v>61</v>
@@ -2961,7 +2961,7 @@
       <c r="BM15" s="32"/>
       <c r="BN15" s="32"/>
     </row>
-    <row r="16" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="45"/>
       <c r="B16" s="91" t="s">
         <v>62</v>
@@ -3043,7 +3043,7 @@
       <c r="BM16" s="32"/>
       <c r="BN16" s="32"/>
     </row>
-    <row r="17" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="45"/>
       <c r="B17" s="91" t="s">
         <v>63</v>
@@ -3115,7 +3115,7 @@
       <c r="BM17" s="32"/>
       <c r="BN17" s="32"/>
     </row>
-    <row r="18" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="45"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92" t="s">
@@ -3185,7 +3185,7 @@
       <c r="BM18" s="32"/>
       <c r="BN18" s="32"/>
     </row>
-    <row r="19" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="45" t="s">
         <v>28</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="BM19" s="32"/>
       <c r="BN19" s="32"/>
     </row>
-    <row r="20" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="45"/>
       <c r="B20" s="62" t="s">
         <v>43</v>
@@ -3346,7 +3346,7 @@
       <c r="BM20" s="32"/>
       <c r="BN20" s="32"/>
     </row>
-    <row r="21" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="45"/>
       <c r="B21" s="62" t="s">
         <v>45</v>
@@ -3430,7 +3430,7 @@
       <c r="BM21" s="32"/>
       <c r="BN21" s="32"/>
     </row>
-    <row r="22" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="45"/>
       <c r="B22" s="62" t="s">
         <v>47</v>
@@ -3514,7 +3514,7 @@
       <c r="BM22" s="32"/>
       <c r="BN22" s="32"/>
     </row>
-    <row r="23" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="44" t="s">
         <v>21</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="BM23" s="32"/>
       <c r="BN23" s="32"/>
     </row>
-    <row r="24" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="44"/>
       <c r="B24" s="63" t="s">
         <v>48</v>
@@ -3675,7 +3675,7 @@
       <c r="BM24" s="32"/>
       <c r="BN24" s="32"/>
     </row>
-    <row r="25" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="44"/>
       <c r="B25" s="63" t="s">
         <v>49</v>
@@ -3761,7 +3761,7 @@
       <c r="BM25" s="32"/>
       <c r="BN25" s="32"/>
     </row>
-    <row r="26" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="44"/>
       <c r="B26" s="63" t="s">
         <v>64</v>
@@ -3847,7 +3847,7 @@
       <c r="BM26" s="32"/>
       <c r="BN26" s="32"/>
     </row>
-    <row r="27" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="44"/>
       <c r="B27" s="63" t="s">
         <v>50</v>
@@ -3933,7 +3933,7 @@
       <c r="BM27" s="32"/>
       <c r="BN27" s="32"/>
     </row>
-    <row r="28" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="44"/>
       <c r="B28" s="63" t="s">
         <v>51</v>
@@ -4019,7 +4019,7 @@
       <c r="BM28" s="32"/>
       <c r="BN28" s="32"/>
     </row>
-    <row r="29" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="44" t="s">
         <v>21</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="BM29" s="32"/>
       <c r="BN29" s="32"/>
     </row>
-    <row r="30" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="44"/>
       <c r="B30" s="64" t="s">
         <v>53</v>
@@ -4178,7 +4178,7 @@
       <c r="BM30" s="32"/>
       <c r="BN30" s="32"/>
     </row>
-    <row r="31" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="44"/>
       <c r="B31" s="64" t="s">
         <v>54</v>
@@ -4264,7 +4264,7 @@
       <c r="BM31" s="32"/>
       <c r="BN31" s="32"/>
     </row>
-    <row r="32" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="44"/>
       <c r="B32" s="64" t="s">
         <v>55</v>
@@ -4350,7 +4350,7 @@
       <c r="BM32" s="32"/>
       <c r="BN32" s="32"/>
     </row>
-    <row r="33" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="44" t="s">
         <v>22</v>
       </c>
@@ -4434,29 +4434,29 @@
       <c r="BM33" s="32"/>
       <c r="BN33" s="32"/>
     </row>
-    <row r="34" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="14"/>
       <c r="H35" s="46"/>
     </row>
-    <row r="36" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BH4:BN4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:F8 D9:D12 D13:F13 D14:D33">
     <cfRule type="dataBar" priority="14">
@@ -4526,86 +4526,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="87.1640625" style="34" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="87.15625" style="34" customWidth="1"/>
+    <col min="2" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:2" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="35"/>
     </row>
-    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="41"/>
     </row>
-    <row r="4" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A4" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="34" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="34" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A8" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.5">
       <c r="A9" s="39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A11" s="38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.5">
       <c r="A12" s="39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="34" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="37" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A14" s="38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.5">
       <c r="A16" s="39" t="s">
         <v>12</v>
       </c>

--- a/docs/Planung/Gantt-Zeitplan.xlsx
+++ b/docs/Planung/Gantt-Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AAD4F7-F9B6-4E18-A3E3-C7E86C6C215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84C9E47-C4AD-4860-88AD-FE1697B701CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Project Start:</t>
   </si>
@@ -264,9 +264,6 @@
   </si>
   <si>
     <t>Continius Deployment Aufsetzten</t>
-  </si>
-  <si>
-    <t>Bausteinsicht Visualisieren</t>
   </si>
   <si>
     <t>Login/Registrieransicht</t>
@@ -1007,23 +1004,23 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1593,11 +1590,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN36"/>
+  <dimension ref="A1:BN34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1646,106 +1643,106 @@
       <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="101">
+      <c r="D3" s="102"/>
+      <c r="E3" s="100">
         <v>44985</v>
       </c>
-      <c r="F3" s="102"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="97"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="98">
+      <c r="K4" s="97">
         <f>K5</f>
         <v>44984</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="98">
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="97">
         <f>R5</f>
         <v>44991</v>
       </c>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="98">
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="97">
         <f>Y5</f>
         <v>44998</v>
       </c>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="98">
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="97">
         <f>AF5</f>
         <v>45005</v>
       </c>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="98">
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="98"/>
+      <c r="AI4" s="98"/>
+      <c r="AJ4" s="98"/>
+      <c r="AK4" s="98"/>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="97">
         <f>AM5</f>
         <v>45012</v>
       </c>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="100"/>
-      <c r="AT4" s="98">
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="98"/>
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="97">
         <f>AT5</f>
         <v>45019</v>
       </c>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="99"/>
-      <c r="AZ4" s="100"/>
-      <c r="BA4" s="98">
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="98"/>
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="97">
         <f>BA5</f>
         <v>45026</v>
       </c>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="99"/>
-      <c r="BF4" s="99"/>
-      <c r="BG4" s="100"/>
-      <c r="BH4" s="98">
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="98"/>
+      <c r="BE4" s="98"/>
+      <c r="BF4" s="98"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="97">
         <f>BH5</f>
         <v>45033</v>
       </c>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="99"/>
-      <c r="BM4" s="99"/>
-      <c r="BN4" s="100"/>
+      <c r="BI4" s="98"/>
+      <c r="BJ4" s="98"/>
+      <c r="BK4" s="98"/>
+      <c r="BL4" s="98"/>
+      <c r="BM4" s="98"/>
+      <c r="BN4" s="99"/>
     </row>
     <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="45" t="s">
@@ -2320,7 +2317,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="str">
-        <f t="shared" ref="J8:J33" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="J8:J31" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="K8" s="32"/>
@@ -3044,20 +3041,23 @@
       <c r="BN16" s="32"/>
     </row>
     <row r="17" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="45"/>
-      <c r="B17" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
+      <c r="A17" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
@@ -3117,17 +3117,33 @@
     </row>
     <row r="18" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="45"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92" t="s">
+      <c r="B18" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
+      <c r="E18" s="73">
+        <v>1</v>
+      </c>
+      <c r="F18" s="73">
+        <v>1</v>
+      </c>
+      <c r="G18" s="80">
+        <v>44990</v>
+      </c>
+      <c r="H18" s="80">
+        <f>G18+0</f>
+        <v>44990</v>
+      </c>
       <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="J18" s="17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="K18" s="32"/>
       <c r="L18" s="32"/>
       <c r="M18" s="32"/>
@@ -3186,23 +3202,32 @@
       <c r="BN18" s="32"/>
     </row>
     <row r="19" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="80">
+        <f>H18</f>
+        <v>44990</v>
+      </c>
+      <c r="H19" s="80">
+        <f>G19</f>
+        <v>44990</v>
+      </c>
       <c r="I19" s="17"/>
-      <c r="J19" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J19" s="17"/>
       <c r="K19" s="32"/>
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
@@ -3263,13 +3288,13 @@
     <row r="20" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="45"/>
       <c r="B20" s="62" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="73">
         <v>1</v>
@@ -3278,17 +3303,15 @@
         <v>1</v>
       </c>
       <c r="G20" s="80">
+        <f>H19</f>
         <v>44990</v>
       </c>
       <c r="H20" s="80">
-        <f>G20+0</f>
+        <f>G20</f>
         <v>44990</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="17">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="J20" s="17"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
@@ -3347,32 +3370,23 @@
       <c r="BN20" s="32"/>
     </row>
     <row r="21" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="45"/>
-      <c r="B21" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="80">
-        <f>H20</f>
-        <v>44990</v>
-      </c>
-      <c r="H21" s="80">
-        <f>G21</f>
-        <v>44990</v>
-      </c>
+      <c r="A21" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="J21" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="K21" s="32"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
@@ -3431,32 +3445,34 @@
       <c r="BN21" s="32"/>
     </row>
     <row r="22" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="45"/>
-      <c r="B22" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="55" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="28">
         <v>1</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="83">
+        <v>44989</v>
+      </c>
+      <c r="H22" s="83">
+        <f>G22+0</f>
+        <v>44989</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F22" s="73">
-        <v>1</v>
-      </c>
-      <c r="G22" s="80">
-        <f>H21</f>
-        <v>44990</v>
-      </c>
-      <c r="H22" s="80">
-        <f>G22</f>
-        <v>44990</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
       <c r="K22" s="32"/>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
@@ -3515,22 +3531,33 @@
       <c r="BN22" s="32"/>
     </row>
     <row r="23" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="82"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1</v>
+      </c>
+      <c r="E23" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="75">
+        <v>1</v>
+      </c>
+      <c r="G23" s="83">
+        <v>44989</v>
+      </c>
+      <c r="H23" s="83">
+        <f>G23+0</f>
+        <v>44989</v>
+      </c>
       <c r="I23" s="17"/>
-      <c r="J23" s="17" t="str">
+      <c r="J23" s="17">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="32"/>
@@ -3592,7 +3619,7 @@
     <row r="24" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="44"/>
       <c r="B24" s="63" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>34</v>
@@ -3601,22 +3628,22 @@
         <v>1</v>
       </c>
       <c r="E24" s="75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F24" s="75">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="G24" s="83">
         <v>44989</v>
       </c>
       <c r="H24" s="83">
-        <f>G24+0</f>
-        <v>44989</v>
+        <f>G24+1</f>
+        <v>44990</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
@@ -3678,7 +3705,7 @@
     <row r="25" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="44"/>
       <c r="B25" s="63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>34</v>
@@ -3687,22 +3714,22 @@
         <v>1</v>
       </c>
       <c r="E25" s="75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F25" s="75">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G25" s="83">
         <v>44989</v>
       </c>
       <c r="H25" s="83">
-        <f>G25+0</f>
-        <v>44989</v>
+        <f>G25+1</f>
+        <v>44990</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
@@ -3764,7 +3791,7 @@
     <row r="26" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="44"/>
       <c r="B26" s="63" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C26" s="57" t="s">
         <v>34</v>
@@ -3773,10 +3800,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="75">
         <v>1</v>
-      </c>
-      <c r="F26" s="75">
-        <v>1.5</v>
       </c>
       <c r="G26" s="83">
         <v>44989</v>
@@ -3848,33 +3875,22 @@
       <c r="BN26" s="32"/>
     </row>
     <row r="27" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="44"/>
-      <c r="B27" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="28">
-        <v>1</v>
-      </c>
-      <c r="E27" s="75">
-        <v>1</v>
-      </c>
-      <c r="F27" s="75">
-        <v>1.25</v>
-      </c>
-      <c r="G27" s="83">
-        <v>44989</v>
-      </c>
-      <c r="H27" s="83">
-        <f>G27+1</f>
-        <v>44990</v>
-      </c>
+      <c r="A27" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="85"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="17">
+      <c r="J27" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="32"/>
@@ -3935,32 +3951,32 @@
     </row>
     <row r="28" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="44"/>
-      <c r="B28" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="57" t="s">
+      <c r="B28" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="77">
         <v>1</v>
       </c>
-      <c r="E28" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="75">
-        <v>1</v>
-      </c>
-      <c r="G28" s="83">
-        <v>44989</v>
-      </c>
-      <c r="H28" s="83">
-        <f>G28+1</f>
-        <v>44990</v>
+      <c r="F28" s="77">
+        <v>0.2</v>
+      </c>
+      <c r="G28" s="86">
+        <v>45007</v>
+      </c>
+      <c r="H28" s="86">
+        <f>G28</f>
+        <v>45007</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="32"/>
@@ -4020,22 +4036,33 @@
       <c r="BN28" s="32"/>
     </row>
     <row r="29" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="31">
+        <v>1</v>
+      </c>
+      <c r="E29" s="77">
+        <v>1</v>
+      </c>
+      <c r="F29" s="77">
+        <v>1</v>
+      </c>
+      <c r="G29" s="86">
+        <v>45005</v>
+      </c>
+      <c r="H29" s="86">
+        <f t="shared" ref="H29:H30" si="6">G29</f>
+        <v>45005</v>
+      </c>
       <c r="I29" s="17"/>
-      <c r="J29" s="17" t="str">
+      <c r="J29" s="17">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
@@ -4097,24 +4124,26 @@
     <row r="30" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="44"/>
       <c r="B30" s="64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30" s="59" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="31">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="77">
-        <v>1</v>
-      </c>
-      <c r="F30" s="77"/>
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="77">
+        <v>0.5</v>
+      </c>
       <c r="G30" s="86">
-        <v>45007</v>
+        <v>45005</v>
       </c>
       <c r="H30" s="86">
-        <f>G30</f>
-        <v>45007</v>
+        <f t="shared" si="6"/>
+        <v>45005</v>
       </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17">
@@ -4179,33 +4208,31 @@
       <c r="BN30" s="32"/>
     </row>
     <row r="31" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="44"/>
-      <c r="B31" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="77">
-        <v>1</v>
-      </c>
-      <c r="F31" s="77">
-        <v>1</v>
-      </c>
-      <c r="G31" s="86">
-        <v>45005</v>
-      </c>
-      <c r="H31" s="86">
-        <f t="shared" ref="H31:H32" si="6">G31</f>
-        <v>45005</v>
-      </c>
+      <c r="A31" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="16">
+        <f>AVERAGE(D9:D30)</f>
+        <v>0.89444444444444449</v>
+      </c>
+      <c r="E31" s="60">
+        <f>SUM(E9:E30)</f>
+        <v>15.5</v>
+      </c>
+      <c r="F31" s="60">
+        <f>SUM(F9:F30)</f>
+        <v>17.45</v>
+      </c>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="17">
+      <c r="J31" s="17" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
@@ -4264,201 +4291,31 @@
       <c r="BM31" s="32"/>
       <c r="BN31" s="32"/>
     </row>
-    <row r="32" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="44"/>
-      <c r="B32" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="31">
-        <v>1</v>
-      </c>
-      <c r="E32" s="77">
-        <v>0.5</v>
-      </c>
-      <c r="F32" s="77">
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="86">
-        <v>45005</v>
-      </c>
-      <c r="H32" s="86">
-        <f t="shared" si="6"/>
-        <v>45005</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-      <c r="AT32" s="32"/>
-      <c r="AU32" s="32"/>
-      <c r="AV32" s="32"/>
-      <c r="AW32" s="32"/>
-      <c r="AX32" s="32"/>
-      <c r="AY32" s="32"/>
-      <c r="AZ32" s="32"/>
-      <c r="BA32" s="32"/>
-      <c r="BB32" s="32"/>
-      <c r="BC32" s="32"/>
-      <c r="BD32" s="32"/>
-      <c r="BE32" s="32"/>
-      <c r="BF32" s="32"/>
-      <c r="BG32" s="32"/>
-      <c r="BH32" s="32"/>
-      <c r="BI32" s="32"/>
-      <c r="BJ32" s="32"/>
-      <c r="BK32" s="32"/>
-      <c r="BL32" s="32"/>
-      <c r="BM32" s="32"/>
-      <c r="BN32" s="32"/>
-    </row>
-    <row r="33" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="16">
-        <f>AVERAGE(D9:D32)</f>
-        <v>0.89444444444444449</v>
-      </c>
-      <c r="E33" s="60">
-        <f>SUM(E9:E32)</f>
-        <v>15.5</v>
-      </c>
-      <c r="F33" s="60">
-        <f>SUM(F9:F32)</f>
-        <v>17.25</v>
-      </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="32"/>
-      <c r="AU33" s="32"/>
-      <c r="AV33" s="32"/>
-      <c r="AW33" s="32"/>
-      <c r="AX33" s="32"/>
-      <c r="AY33" s="32"/>
-      <c r="AZ33" s="32"/>
-      <c r="BA33" s="32"/>
-      <c r="BB33" s="32"/>
-      <c r="BC33" s="32"/>
-      <c r="BD33" s="32"/>
-      <c r="BE33" s="32"/>
-      <c r="BF33" s="32"/>
-      <c r="BG33" s="32"/>
-      <c r="BH33" s="32"/>
-      <c r="BI33" s="32"/>
-      <c r="BJ33" s="32"/>
-      <c r="BK33" s="32"/>
-      <c r="BL33" s="32"/>
-      <c r="BM33" s="32"/>
-      <c r="BN33" s="32"/>
-    </row>
-    <row r="34" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" s="14"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="15"/>
+    <row r="32" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" s="14"/>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="3:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BH4:BN4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:F8 D9:D12 D13:F13 D14:D33">
+  <conditionalFormatting sqref="D7:F8 D9:D12 D13:F13 D14:D31">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4472,12 +4329,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:BN33">
+  <conditionalFormatting sqref="K5:BN31">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=K$5,TODAY()&lt;L$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:BN33">
+  <conditionalFormatting sqref="K7:BN31">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=K$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=K$5)</formula>
     </cfRule>
@@ -4512,7 +4369,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:F8 D9:D12 D13:F13 D14:D33</xm:sqref>
+          <xm:sqref>D7:F8 D9:D12 D13:F13 D14:D31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/Planung/Gantt-Zeitplan.xlsx
+++ b/docs/Planung/Gantt-Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84C9E47-C4AD-4860-88AD-FE1697B701CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C220B3C-34D7-4513-A7C9-E0D471CDD08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>Design GUI</t>
-  </si>
-  <si>
     <t>Frontend Implementierung</t>
   </si>
   <si>
@@ -263,10 +260,13 @@
     <t>Dokumentationsstruktur Vorbereiten</t>
   </si>
   <si>
-    <t>Continius Deployment Aufsetzten</t>
-  </si>
-  <si>
     <t>Login/Registrieransicht</t>
+  </si>
+  <si>
+    <t>Designentwurf</t>
+  </si>
+  <si>
+    <t>Continius Deployment Aufsetzten (Pipeline)</t>
   </si>
 </sst>
 </file>
@@ -1004,6 +1004,9 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1018,9 +1021,6 @@
     </xf>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1593,14 +1593,14 @@
   <dimension ref="A1:BN34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="2.68359375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="33.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.20703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.68359375" customWidth="1"/>
     <col min="4" max="6" width="10.68359375" customWidth="1"/>
     <col min="7" max="7" width="9.83984375" style="5" bestFit="1" customWidth="1"/>
@@ -1643,106 +1643,106 @@
       <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="100">
+      <c r="D3" s="97"/>
+      <c r="E3" s="101">
         <v>44985</v>
       </c>
-      <c r="F3" s="101"/>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="102"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="K4" s="97">
+      <c r="K4" s="98">
         <f>K5</f>
         <v>44984</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="97">
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="98">
         <f>R5</f>
         <v>44991</v>
       </c>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="97">
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="98">
         <f>Y5</f>
         <v>44998</v>
       </c>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="98"/>
-      <c r="AB4" s="98"/>
-      <c r="AC4" s="98"/>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="97">
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="98">
         <f>AF5</f>
         <v>45005</v>
       </c>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="98"/>
-      <c r="AI4" s="98"/>
-      <c r="AJ4" s="98"/>
-      <c r="AK4" s="98"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="97">
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="98">
         <f>AM5</f>
         <v>45012</v>
       </c>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="98"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="98"/>
-      <c r="AR4" s="98"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="97">
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="99"/>
+      <c r="AR4" s="99"/>
+      <c r="AS4" s="100"/>
+      <c r="AT4" s="98">
         <f>AT5</f>
         <v>45019</v>
       </c>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="98"/>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="97">
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="99"/>
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="98">
         <f>BA5</f>
         <v>45026</v>
       </c>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="98"/>
-      <c r="BF4" s="98"/>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="97">
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="99"/>
+      <c r="BF4" s="99"/>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="98">
         <f>BH5</f>
         <v>45033</v>
       </c>
-      <c r="BI4" s="98"/>
-      <c r="BJ4" s="98"/>
-      <c r="BK4" s="98"/>
-      <c r="BL4" s="98"/>
-      <c r="BM4" s="98"/>
-      <c r="BN4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="99"/>
+      <c r="BM4" s="99"/>
+      <c r="BN4" s="100"/>
     </row>
     <row r="5" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="45" t="s">
@@ -1986,10 +1986,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>41</v>
@@ -2469,7 +2469,7 @@
     <row r="10" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="44"/>
       <c r="B10" s="61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>34</v>
@@ -2727,7 +2727,7 @@
     <row r="13" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="45"/>
       <c r="B13" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="88"/>
       <c r="D13" s="89"/>
@@ -2797,7 +2797,7 @@
     <row r="14" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="45"/>
       <c r="B14" s="91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="92" t="s">
         <v>34</v>
@@ -2879,7 +2879,7 @@
     <row r="15" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="45"/>
       <c r="B15" s="91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="92" t="s">
         <v>34</v>
@@ -2961,7 +2961,7 @@
     <row r="16" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="45"/>
       <c r="B16" s="91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="92" t="s">
         <v>34</v>
@@ -3045,7 +3045,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="24"/>
@@ -3118,13 +3118,13 @@
     <row r="18" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="45"/>
       <c r="B18" s="62" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C18" s="55" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="73">
         <v>1</v>
@@ -3204,13 +3204,13 @@
     <row r="19" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="45"/>
       <c r="B19" s="62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="55" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="25">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E19" s="73">
         <v>0.5</v>
@@ -3288,7 +3288,7 @@
     <row r="20" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="45"/>
       <c r="B20" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>34</v>
@@ -3374,7 +3374,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="27"/>
@@ -3447,7 +3447,7 @@
     <row r="22" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="44"/>
       <c r="B22" s="63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="57" t="s">
         <v>34</v>
@@ -3533,7 +3533,7 @@
     <row r="23" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="44"/>
       <c r="B23" s="63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>34</v>
@@ -3619,7 +3619,7 @@
     <row r="24" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="44"/>
       <c r="B24" s="63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>34</v>
@@ -3705,7 +3705,7 @@
     <row r="25" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="44"/>
       <c r="B25" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>34</v>
@@ -3791,7 +3791,7 @@
     <row r="26" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="44"/>
       <c r="B26" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="57" t="s">
         <v>34</v>
@@ -3879,7 +3879,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="58"/>
       <c r="D27" s="30"/>
@@ -3952,13 +3952,13 @@
     <row r="28" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="44"/>
       <c r="B28" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="59" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="31">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="77">
         <v>1</v>
@@ -3967,11 +3967,11 @@
         <v>0.2</v>
       </c>
       <c r="G28" s="86">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="H28" s="86">
         <f>G28</f>
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17">
@@ -4038,7 +4038,7 @@
     <row r="29" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="44"/>
       <c r="B29" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="59" t="s">
         <v>34</v>
@@ -4124,7 +4124,7 @@
     <row r="30" spans="1:66" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="44"/>
       <c r="B30" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="59" t="s">
         <v>34</v>
@@ -4217,7 +4217,7 @@
       <c r="C31" s="60"/>
       <c r="D31" s="16">
         <f>AVERAGE(D9:D30)</f>
-        <v>0.89444444444444449</v>
+        <v>1</v>
       </c>
       <c r="E31" s="60">
         <f>SUM(E9:E30)</f>
@@ -4303,17 +4303,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BH4:BN4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="R4:X4"/>
     <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="BA4:BG4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:F8 D9:D12 D13:F13 D14:D31">
     <cfRule type="dataBar" priority="14">
